--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H2">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I2">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J2">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167722437872706</v>
+        <v>0.1743356666666667</v>
       </c>
       <c r="N2">
-        <v>0.167722437872706</v>
+        <v>0.523007</v>
       </c>
       <c r="O2">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="P2">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="Q2">
-        <v>1.414841113502554</v>
+        <v>2.230710570036111</v>
       </c>
       <c r="R2">
-        <v>1.414841113502554</v>
+        <v>20.076395130325</v>
       </c>
       <c r="S2">
-        <v>0.009205751528284739</v>
+        <v>0.01185115676137086</v>
       </c>
       <c r="T2">
-        <v>0.009205751528284739</v>
+        <v>0.01185115676137086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H3">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I3">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J3">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.38782081358219</v>
+        <v>2.401382333333334</v>
       </c>
       <c r="N3">
-        <v>2.38782081358219</v>
+        <v>7.204147000000001</v>
       </c>
       <c r="O3">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="P3">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="Q3">
-        <v>20.14272569360843</v>
+        <v>30.72686763464722</v>
       </c>
       <c r="R3">
-        <v>20.14272569360843</v>
+        <v>276.541808711825</v>
       </c>
       <c r="S3">
-        <v>0.1310598950427103</v>
+        <v>0.163243466012806</v>
       </c>
       <c r="T3">
-        <v>0.1310598950427103</v>
+        <v>0.163243466012806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.43561023466852</v>
+        <v>12.79549166666667</v>
       </c>
       <c r="H4">
-        <v>8.43561023466852</v>
+        <v>38.386475</v>
       </c>
       <c r="I4">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="J4">
-        <v>0.4119170145954098</v>
+        <v>0.5145949251267348</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.94930039731366</v>
+        <v>4.994197</v>
       </c>
       <c r="N4">
-        <v>4.94930039731366</v>
+        <v>14.982591</v>
       </c>
       <c r="O4">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="P4">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="Q4">
-        <v>41.75036908602809</v>
+        <v>63.90320609519166</v>
       </c>
       <c r="R4">
-        <v>41.75036908602809</v>
+        <v>575.128854856725</v>
       </c>
       <c r="S4">
-        <v>0.2716513680244147</v>
+        <v>0.3395003023525579</v>
       </c>
       <c r="T4">
-        <v>0.2716513680244147</v>
+        <v>0.3395003023525579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H5">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I5">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J5">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.167722437872706</v>
+        <v>0.1743356666666667</v>
       </c>
       <c r="N5">
-        <v>0.167722437872706</v>
+        <v>0.523007</v>
       </c>
       <c r="O5">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="P5">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="Q5">
-        <v>1.644082645365064</v>
+        <v>1.709168745090667</v>
       </c>
       <c r="R5">
-        <v>1.644082645365064</v>
+        <v>15.382518705816</v>
       </c>
       <c r="S5">
-        <v>0.01069732578503313</v>
+        <v>0.009080347312550328</v>
       </c>
       <c r="T5">
-        <v>0.01069732578503313</v>
+        <v>0.009080347312550328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H6">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I6">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J6">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.38782081358219</v>
+        <v>2.401382333333334</v>
       </c>
       <c r="N6">
-        <v>2.38782081358219</v>
+        <v>7.204147000000001</v>
       </c>
       <c r="O6">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="P6">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="Q6">
-        <v>23.40637788028968</v>
+        <v>23.54290265223734</v>
       </c>
       <c r="R6">
-        <v>23.40637788028968</v>
+        <v>211.886123870136</v>
       </c>
       <c r="S6">
-        <v>0.1522950505796833</v>
+        <v>0.1250770197161176</v>
       </c>
       <c r="T6">
-        <v>0.1522950505796833</v>
+        <v>0.1250770197161176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.80240131384717</v>
+        <v>9.803896</v>
       </c>
       <c r="H7">
-        <v>9.80240131384717</v>
+        <v>29.411688</v>
       </c>
       <c r="I7">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="J7">
-        <v>0.4786584221816781</v>
+        <v>0.3942822409249843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.94930039731366</v>
+        <v>4.994197</v>
       </c>
       <c r="N7">
-        <v>4.94930039731366</v>
+        <v>14.982591</v>
       </c>
       <c r="O7">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="P7">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="Q7">
-        <v>48.51502871725175</v>
+        <v>48.962587991512</v>
       </c>
       <c r="R7">
-        <v>48.51502871725175</v>
+        <v>440.663291923608</v>
       </c>
       <c r="S7">
-        <v>0.3156660458169617</v>
+        <v>0.2601248738963163</v>
       </c>
       <c r="T7">
-        <v>0.3156660458169617</v>
+        <v>0.2601248738963163</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H8">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I8">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J8">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.167722437872706</v>
+        <v>0.1743356666666667</v>
       </c>
       <c r="N8">
-        <v>0.167722437872706</v>
+        <v>0.523007</v>
       </c>
       <c r="O8">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="P8">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="Q8">
-        <v>0.3758484485689433</v>
+        <v>0.3950071384983334</v>
       </c>
       <c r="R8">
-        <v>0.3758484485689433</v>
+        <v>3.555064246485</v>
       </c>
       <c r="S8">
-        <v>0.002445481260614182</v>
+        <v>0.002098565176085798</v>
       </c>
       <c r="T8">
-        <v>0.002445481260614182</v>
+        <v>0.002098565176085798</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H9">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I9">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J9">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.38782081358219</v>
+        <v>2.401382333333334</v>
       </c>
       <c r="N9">
-        <v>2.38782081358219</v>
+        <v>7.204147000000001</v>
       </c>
       <c r="O9">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="P9">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="Q9">
-        <v>5.350856806211166</v>
+        <v>5.441016070131668</v>
       </c>
       <c r="R9">
-        <v>5.350856806211166</v>
+        <v>48.96914463118501</v>
       </c>
       <c r="S9">
-        <v>0.03481568195277238</v>
+        <v>0.02890663417048524</v>
       </c>
       <c r="T9">
-        <v>0.03481568195277238</v>
+        <v>0.02890663417048524</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.24089545403696</v>
+        <v>2.265785</v>
       </c>
       <c r="H10">
-        <v>2.24089545403696</v>
+        <v>6.797355</v>
       </c>
       <c r="I10">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="J10">
-        <v>0.1094245632229121</v>
+        <v>0.09112283394828093</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.94930039731366</v>
+        <v>4.994197</v>
       </c>
       <c r="N10">
-        <v>4.94930039731366</v>
+        <v>14.982591</v>
       </c>
       <c r="O10">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="P10">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="Q10">
-        <v>11.0908647610035</v>
+        <v>11.315776649645</v>
       </c>
       <c r="R10">
-        <v>11.0908647610035</v>
+        <v>101.841989846805</v>
       </c>
       <c r="S10">
-        <v>0.07216340000952556</v>
+        <v>0.06011763460170989</v>
       </c>
       <c r="T10">
-        <v>0.07216340000952556</v>
+        <v>0.06011763460170989</v>
       </c>
     </row>
   </sheetData>
